--- a/biology/Médecine/Arthur_Kronfeld/Arthur_Kronfeld.xlsx
+++ b/biology/Médecine/Arthur_Kronfeld/Arthur_Kronfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Kronfeld (9 janvier 1886 à Berlin – 16 octobre 1941 à Moscou) est un médecin, psychologue et psychothérapeute allemand avec une profonde formation philosophique dans le cercle du philosophe berlinois Leonard Nelson.
 </t>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tôt pendant sa spécialisation en psychiatrie, il a publié une critique scientifique sur la psychanalyse basée sur une collaboration avec entre autres Karl Jaspers, Otto Meyerhof et Otto Heinrich Warburg à Heidelberg[1],[2]. Du 1919 à 1926 il travaille dans le fameux et ambitieux Institut de sexologie de Magnus Hirschfeld, avant de se qualifier pour l'enseignement supérieur à l'université de Berlin en 1927 et de s'engager dans le mouvement d'Alfred Adler jusqu'à 1930/31.
-À partir de 1930, il rédige la revue Zentralblatt für Psychotherapie (avant Allgemeine Ärztliche Zeitschrift für Psychotherapie und psychische Hygiene[3]) avec J.H.Schultz jusqu'au début de 1933, date à laquelle Matthias Göring en prend la direction avec Carl Gustav Jung qui remplace Ernst Kretschmer dans le comité directeur d'Allgemeine Ärztliche Gesellschaft für Psychotherapie (de). Kronfeld doit quitter Berlin en 1935 pour la Suisse alors qu'il était professeur d'Université; comme Juif, il avait été écarté de cette fonction dans cette année.
-En 1936, il part pour l'Union soviétique, pays dont il est devenu citoyen, professant à l'Université de Moscou avant de se suicider avec sa femme en 1941[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tôt pendant sa spécialisation en psychiatrie, il a publié une critique scientifique sur la psychanalyse basée sur une collaboration avec entre autres Karl Jaspers, Otto Meyerhof et Otto Heinrich Warburg à Heidelberg,. Du 1919 à 1926 il travaille dans le fameux et ambitieux Institut de sexologie de Magnus Hirschfeld, avant de se qualifier pour l'enseignement supérieur à l'université de Berlin en 1927 et de s'engager dans le mouvement d'Alfred Adler jusqu'à 1930/31.
+À partir de 1930, il rédige la revue Zentralblatt für Psychotherapie (avant Allgemeine Ärztliche Zeitschrift für Psychotherapie und psychische Hygiene) avec J.H.Schultz jusqu'au début de 1933, date à laquelle Matthias Göring en prend la direction avec Carl Gustav Jung qui remplace Ernst Kretschmer dans le comité directeur d'Allgemeine Ärztliche Gesellschaft für Psychotherapie (de). Kronfeld doit quitter Berlin en 1935 pour la Suisse alors qu'il était professeur d'Université; comme Juif, il avait été écarté de cette fonction dans cette année.
+En 1936, il part pour l'Union soviétique, pays dont il est devenu citoyen, professant à l'Université de Moscou avant de se suicider avec sa femme en 1941.
 </t>
         </is>
       </c>
